--- a/Protocol_R4875g.xlsx
+++ b/Protocol_R4875g.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Documents\GitHub\CAN-BUS-control-R4875G1-with-ESPHome-and-MQTT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32790900-E645-4F61-A458-FACFAF8A17C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="OxCFNvbU10+6QwJvkXBM7AyqIodgebwD8HY0fnDFNhw="/>
@@ -16,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
-  <si>
-    <t>Huawei R4875G2 Rectifier Module</t>
-  </si>
-  <si>
-    <t>Edited by R8CEH (rybak27)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
   <si>
     <t>Baud Rate 125kbps</t>
   </si>
@@ -45,9 +48,6 @@
     <t xml:space="preserve">Request Data Frames: </t>
   </si>
   <si>
-    <t xml:space="preserve">0x108040FE </t>
-  </si>
-  <si>
     <t>0x00</t>
   </si>
   <si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">Receive Data: </t>
-  </si>
-  <si>
-    <t>0x1081407F</t>
   </si>
   <si>
     <t>0x01</t>
@@ -170,17 +167,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
-        <color theme="9"/>
-        <sz val="11.0"/>
       </rPr>
       <t>On-line</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> Output Voltage</t>
     </r>
@@ -194,25 +191,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
-        <color rgb="FFC00000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Off-line</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>/Default Ou</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>tput Voltage</t>
     </r>
@@ -226,26 +223,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Overvoltage Protection? (</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Untested</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>)</t>
     </r>
@@ -259,17 +256,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
-        <color theme="9"/>
-        <sz val="11.0"/>
       </rPr>
       <t>On-line</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> Current Limit</t>
     </r>
@@ -286,25 +283,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
-        <color rgb="FFC00000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Off-line</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>/Default O</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>utput Current Limit</t>
     </r>
@@ -342,19 +339,19 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>XX: 01 -Turn on the fans at full power, 00 - automatic fan speed control</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF548135"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF548135"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (On-line)</t>
     </r>
@@ -365,61 +362,40 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>XX: 01 -Turn on the fans at full power, 00 - automatic fan speed control</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> (Off-line)</t>
     </r>
   </si>
   <si>
-    <t>Receive ACK:</t>
-  </si>
-  <si>
-    <t>0x1081807E</t>
-  </si>
-  <si>
-    <t>Mirrors transmitted frame</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>0x21</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Set value is likely out of range</t>
-  </si>
-  <si>
     <t>The rectifier can operate in two states:</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
-        <color rgb="FFC00000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Off-line</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> is when there is no CAN communication (i.e. standalone operation). This occurs on power-up or if CAN communication has timed-out (Orange LED slowly blinking).</t>
     </r>
@@ -427,17 +403,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
-        <color theme="9"/>
-        <sz val="11.0"/>
       </rPr>
       <t>On-line</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> values are only valid when CAN communication is present (Orange LED not blinking). These values are volatile and reset to default on loss of CAN comms.</t>
     </r>
@@ -447,35 +423,104 @@
   </si>
   <si>
     <t>*0x108180FE for first Huawei, 0x108280FE for second Huawei, etc. 0x108080FE for all units in the system</t>
+  </si>
+  <si>
+    <t>0x108040FE **</t>
+  </si>
+  <si>
+    <t>0x1081407F ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***0x1081407F is the ID that reports for the first rectifier (true also when only one is on the BUS); 0x1082407F is the ID for status messages from No.2 rectifier etc.  </t>
+  </si>
+  <si>
+    <t>** 0x108040FE to request status messages from all recitfiers, when more than one Rectifier is on the CAN BUS you can use 0x108140FE to request status from rectifier 1;  0x108240FE  to request from No.2 rectifier etc</t>
+  </si>
+  <si>
+    <t>Huawei R4875G1 Rectifier Module</t>
+  </si>
+  <si>
+    <t>Edited by mjpalmowski</t>
+  </si>
+  <si>
+    <t>/15 if Pin 9 and Pin 10 are connected (to release 75A max current)</t>
+  </si>
+  <si>
+    <t>*1.5 if in full power mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF548135"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -483,15 +528,25 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -506,27 +561,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -536,66 +598,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -785,45 +858,51 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.14"/>
-    <col customWidth="1" min="2" max="2" width="15.29"/>
-    <col customWidth="1" min="3" max="3" width="1.0"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="1.57"/>
-    <col customWidth="1" min="13" max="13" width="17.71"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col min="1" max="1" width="32.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="1.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" customWidth="1"/>
+    <col min="14" max="14" width="74.36328125" customWidth="1"/>
+    <col min="15" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="14.5">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="14.5">
+      <c r="A3" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -844,437 +923,440 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" ht="14.5">
       <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5.0</v>
-      </c>
       <c r="J5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="14.5">
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="4.5" customHeight="1">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" ht="4.5" customHeight="1">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:19" ht="4.5" customHeight="1">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.5">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14.5">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="14.5">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="M12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="14.5">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="M13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14.5">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14.5">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="M15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="14.5">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="M16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="14.5">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="4.5" customHeight="1">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="M17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="14.5">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="M18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.5">
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="M19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.5">
+      <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="M20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="M21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="M13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="M14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="M15" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="M16" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="M17" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="M18" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="M19" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="M20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="M21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1282,386 +1364,383 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="D25" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K25" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="D26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="M26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="M26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="6.75" customHeight="1">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="M28" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" ht="6.75" customHeight="1">
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="N28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="B29" s="15"/>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="M29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="M30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="M31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
+      <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="M28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="M32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+      <c r="M33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="M29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="M30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-      <c r="M31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="M32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="E36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="M33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="D34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N34" s="9" t="s">
+      <c r="H36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3" t="s">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="16"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D40" s="3"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="9" t="s">
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D43" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="3" t="s">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="9" t="s">
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D45" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="M39" s="8" t="s">
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D47" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+      <c r="D48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="M40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2616,21 +2695,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H33:K33"/>
     <mergeCell ref="E39:K39"/>
     <mergeCell ref="E40:K40"/>
     <mergeCell ref="D26:G26"/>
@@ -2640,10 +2704,23 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Protocol_R4875g.xlsx
+++ b/Protocol_R4875g.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Documents\GitHub\CAN-BUS-control-R4875G1-with-ESPHome-and-MQTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32790900-E645-4F61-A458-FACFAF8A17C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335BEF73-FB5E-499A-9480-C1D05CCF73A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="3380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$48</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -613,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -636,18 +639,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -888,10 +890,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -956,18 +958,18 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="4.5" customHeight="1">
       <c r="D7" s="4"/>
@@ -1072,12 +1074,12 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1095,12 +1097,12 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1118,12 +1120,12 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
       <c r="M13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1141,12 +1143,12 @@
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
       <c r="M14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1164,12 +1166,12 @@
       <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
       <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1187,12 +1189,12 @@
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
       <c r="M16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1210,16 +1212,16 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
       <c r="M17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1236,12 +1238,12 @@
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
       <c r="M18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1259,12 +1261,12 @@
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
       <c r="M19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1282,12 +1284,12 @@
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1308,12 +1310,12 @@
       <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
       <c r="M21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1337,9 +1339,9 @@
       <c r="H22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
@@ -1392,18 +1394,18 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
       <c r="M26" s="5" t="s">
         <v>43</v>
       </c>
@@ -1437,12 +1439,12 @@
       <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
       <c r="M28" s="5" t="s">
         <v>47</v>
       </c>
@@ -1451,7 +1453,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B29" s="15"/>
+      <c r="B29" s="10"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1464,12 +1466,12 @@
       <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
       <c r="M29" s="5" t="s">
         <v>47</v>
       </c>
@@ -1490,12 +1492,12 @@
       <c r="G30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
       <c r="M30" s="5" t="s">
         <v>47</v>
       </c>
@@ -1516,19 +1518,19 @@
       <c r="G31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
       <c r="M31" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1545,19 +1547,19 @@
       <c r="G32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
       <c r="M32" s="5" t="s">
         <v>56</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="O32" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1574,12 +1576,12 @@
       <c r="G33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
       <c r="M33" s="5" t="s">
         <v>63</v>
       </c>
@@ -1682,26 +1684,26 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="11"/>
       <c r="D39" s="3"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="D40" s="3"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="12"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
       <c r="M40" s="5"/>
       <c r="N40" s="8"/>
     </row>
@@ -1732,7 +1734,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
-      <c r="D47" s="14" t="s">
+      <c r="D47" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2695,6 +2697,21 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="E39:K39"/>
     <mergeCell ref="E40:K40"/>
     <mergeCell ref="D26:G26"/>
@@ -2704,23 +2721,8 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Protocol_R4875g.xlsx
+++ b/Protocol_R4875g.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Documents\GitHub\CAN-BUS-control-R4875G1-with-ESPHome-and-MQTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335BEF73-FB5E-499A-9480-C1D05CCF73A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207BBCD-24D0-46B3-93B7-741D62DEC971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>Baud Rate 125kbps</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Output Current Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /20</t>
   </si>
   <si>
     <t>0x78</t>
@@ -275,9 +272,6 @@
     </r>
   </si>
   <si>
-    <t>A * 2</t>
-  </si>
-  <si>
     <t>Acceptable range 0 to 90.5A in 0.1A steps. Example: 500 (50.0 A) * 1.38 = 00 00 02 B2</t>
   </si>
   <si>
@@ -451,16 +445,44 @@
   <si>
     <t>*1.5 if in full power mode</t>
   </si>
+  <si>
+    <t>0x1001117e ****</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /15</t>
+  </si>
+  <si>
+    <t>A * 1.5</t>
+  </si>
+  <si>
+    <t>/15</t>
+  </si>
+  <si>
+    <t>Byte 3 is Output Enabled Byte, It is 1 when the unit is hibernating and 0 when it is ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an unsolicited message reporting the DC current, encoded in the last four bytes </t>
+  </si>
+  <si>
+    <t>****0x1001117e for multible unit the message ID is following the same logic 0x1001117e 0x1002117 e0x1003117e etc…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,6 +546,18 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -616,42 +650,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,8 +932,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R48"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -891,10 +951,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="14.5">
       <c r="A1" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.5">
@@ -958,13 +1018,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="14"/>
@@ -986,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -1031,7 +1091,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1074,7 +1134,7 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="14"/>
@@ -1097,7 +1157,7 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="14"/>
@@ -1120,7 +1180,7 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="14"/>
@@ -1143,7 +1203,7 @@
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="14"/>
@@ -1166,7 +1226,7 @@
       <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="14"/>
@@ -1189,7 +1249,7 @@
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="14"/>
@@ -1212,17 +1272,17 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
-      <c r="M17" s="5" t="s">
-        <v>29</v>
+      <c r="M17" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14.5">
@@ -1230,16 +1290,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1253,16 +1313,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1276,16 +1336,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1294,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
@@ -1302,16 +1362,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1320,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
@@ -1328,16 +1388,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1394,20 +1454,20 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
       <c r="M26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="6.75" customHeight="1">
@@ -1422,10 +1482,10 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -1439,17 +1499,17 @@
       <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>46</v>
+      <c r="H28" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="M28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1">
@@ -1466,17 +1526,17 @@
       <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>49</v>
+      <c r="H29" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
       <c r="M29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
@@ -1484,25 +1544,25 @@
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>
       <c r="M30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
@@ -1510,28 +1570,28 @@
         <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="15"/>
-      <c r="M31" s="5" t="s">
-        <v>56</v>
+      <c r="M31" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
@@ -1539,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>7</v>
@@ -1547,20 +1607,20 @@
       <c r="G32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>59</v>
+      <c r="H32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="15"/>
-      <c r="M32" s="5" t="s">
-        <v>56</v>
+      <c r="M32" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
@@ -1568,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>7</v>
@@ -1576,17 +1636,17 @@
       <c r="G33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>62</v>
+      <c r="H33" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>
-      <c r="M33" s="5" t="s">
-        <v>63</v>
+      <c r="M33" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
@@ -1594,31 +1654,31 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="N34" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
@@ -1626,13 +1686,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>7</v>
@@ -1648,7 +1708,7 @@
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
@@ -1656,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>7</v>
@@ -1677,88 +1737,131 @@
         <v>7</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
+      <c r="M38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="11"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
+      <c r="B39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="M39" s="5"/>
+      <c r="N39" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="D40" s="3"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="8"/>
+      <c r="D40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="M40" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="D47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="D48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D49" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="51" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="52" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="53" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="54" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="55" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="56" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="57" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="58" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="59" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="60" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="61" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="63" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="64" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2696,24 +2799,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E40:K40"/>
+  <mergeCells count="23">
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H28:K28"/>
@@ -2721,6 +2807,22 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>

--- a/Protocol_R4875g.xlsx
+++ b/Protocol_R4875g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Documents\GitHub\CAN-BUS-control-R4875G1-with-ESPHome-and-MQTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207BBCD-24D0-46B3-93B7-741D62DEC971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E72C21A-7CEB-4418-B40E-C5A5F6113D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
   <si>
     <t>Baud Rate 125kbps</t>
   </si>
@@ -466,16 +466,59 @@
   <si>
     <t>****0x1001117e for multible unit the message ID is following the same logic 0x1001117e 0x1002117 e0x1003117e etc…</t>
   </si>
+  <si>
+    <t>0x108182FE</t>
+  </si>
+  <si>
+    <t>0x1081827F</t>
+  </si>
+  <si>
+    <t>0x87</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>auto FAN duty</t>
+  </si>
+  <si>
+    <t>/256</t>
+  </si>
+  <si>
+    <t>0x108080FE</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>*256</t>
+  </si>
+  <si>
+    <t>Percent Duty Cycle</t>
+  </si>
+  <si>
+    <t>SET min FAN duty</t>
+  </si>
+  <si>
+    <t>Fan-speed control:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,6 +602,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -568,7 +617,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -646,53 +695,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -701,17 +764,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1018,18 +1113,18 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:19" ht="4.5" customHeight="1">
       <c r="D7" s="4"/>
@@ -1134,12 +1229,12 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
       <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1157,12 +1252,12 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
       <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1180,12 +1275,12 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
       <c r="M13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1203,12 +1298,12 @@
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
       <c r="M14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1226,12 +1321,12 @@
       <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
       <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1249,12 +1344,12 @@
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
       <c r="M16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1272,12 +1367,12 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
       <c r="M17" s="12" t="s">
         <v>85</v>
       </c>
@@ -1298,12 +1393,12 @@
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
       <c r="M18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1321,12 +1416,12 @@
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
       <c r="M19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1344,12 +1439,12 @@
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1370,12 +1465,12 @@
       <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
       <c r="M21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1396,12 +1491,12 @@
       <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
@@ -1454,18 +1549,18 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
       <c r="M26" s="5" t="s">
         <v>42</v>
       </c>
@@ -1499,12 +1594,12 @@
       <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
       <c r="M28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1526,12 +1621,12 @@
       <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
       <c r="M29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1552,12 +1647,12 @@
       <c r="G30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
       <c r="M30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1578,12 +1673,12 @@
       <c r="G31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
       <c r="M31" s="12" t="s">
         <v>86</v>
       </c>
@@ -1607,12 +1702,12 @@
       <c r="G32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
       <c r="M32" s="12" t="s">
         <v>86</v>
       </c>
@@ -1636,12 +1731,12 @@
       <c r="G33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
       <c r="M33" s="12" t="s">
         <v>61</v>
       </c>
@@ -1748,61 +1843,61 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="F39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="20" t="s">
+      <c r="H39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="M39" s="5"/>
-      <c r="N39" s="26" t="s">
+      <c r="N39" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="D40" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="24" t="s">
+      <c r="D40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="27" t="s">
+      <c r="F40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="26"/>
       <c r="M40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1842,26 +1937,228 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D49" s="17" t="s">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D49" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1"/>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A50" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6</v>
+      </c>
+      <c r="K52" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D53" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="M53" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="38"/>
+      <c r="H54" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="41"/>
+      <c r="M54" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="M58" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2799,12 +3096,26 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
+  <mergeCells count="32">
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H40:K40"/>
@@ -2813,16 +3124,11 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>

--- a/Protocol_R4875g.xlsx
+++ b/Protocol_R4875g.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Documents\GitHub\CAN-BUS-control-R4875G1-with-ESPHome-and-MQTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E72C21A-7CEB-4418-B40E-C5A5F6113D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE8796E-0BFE-40BB-B968-A68AFA53A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t>Baud Rate 125kbps</t>
   </si>
@@ -502,16 +502,38 @@
   <si>
     <t>Fan-speed control:</t>
   </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0 disable 1 enable limit</t>
+  </si>
+  <si>
+    <t>*1024</t>
+  </si>
+  <si>
+    <t>Input Current Limit</t>
+  </si>
+  <si>
+    <t>Set AC Current Limit:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,103 +730,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1027,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1113,18 +1136,18 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:19" ht="4.5" customHeight="1">
       <c r="D7" s="4"/>
@@ -1229,12 +1252,12 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1252,12 +1275,12 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
       <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1275,12 +1298,12 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
       <c r="M13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1298,12 +1321,12 @@
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="M14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1321,12 +1344,12 @@
       <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
       <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1344,12 +1367,12 @@
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
       <c r="M16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1367,12 +1390,12 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="M17" s="12" t="s">
         <v>85</v>
       </c>
@@ -1393,12 +1416,12 @@
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
       <c r="M18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1416,12 +1439,12 @@
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
       <c r="M19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1439,12 +1462,12 @@
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1465,12 +1488,12 @@
       <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="M21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1491,12 +1514,12 @@
       <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
@@ -1549,18 +1572,18 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21" t="s">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="M26" s="5" t="s">
         <v>42</v>
       </c>
@@ -1594,12 +1617,12 @@
       <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
       <c r="M28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1621,12 +1644,12 @@
       <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
       <c r="M29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1647,12 +1670,12 @@
       <c r="G30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
       <c r="M30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1673,12 +1696,12 @@
       <c r="G31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
       <c r="M31" s="12" t="s">
         <v>86</v>
       </c>
@@ -1702,12 +1725,12 @@
       <c r="G32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
       <c r="M32" s="12" t="s">
         <v>86</v>
       </c>
@@ -1731,12 +1754,12 @@
       <c r="G33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
       <c r="M33" s="12" t="s">
         <v>61</v>
       </c>
@@ -1888,12 +1911,12 @@
       <c r="G40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="35"/>
       <c r="M40" s="12" t="s">
         <v>87</v>
       </c>
@@ -1943,7 +1966,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1951,7 +1974,7 @@
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -2006,18 +2029,18 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="21" t="s">
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="23"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
       <c r="M53" s="5" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2049,7 @@
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -2035,52 +2058,52 @@
       <c r="E54" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="37" t="s">
+      <c r="G54" s="30"/>
+      <c r="H54" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40" t="s">
+      <c r="I54" s="31"/>
+      <c r="J54" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="41"/>
-      <c r="M54" s="42" t="s">
+      <c r="K54" s="33"/>
+      <c r="M54" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
       <c r="M58" s="5" t="s">
         <v>42</v>
       </c>
@@ -2098,10 +2121,10 @@
       <c r="E59" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="26"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2114,51 +2137,89 @@
       <c r="K59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M59" s="43" t="s">
+      <c r="M59" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
+      <c r="A62" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="M63" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="49.5" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" s="35"/>
+      <c r="M64" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -3096,13 +3157,18 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="F59:G59"/>
+  <mergeCells count="33">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="H57:K57"/>
@@ -3119,16 +3185,12 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="F59:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>

--- a/Protocol_R4875g.xlsx
+++ b/Protocol_R4875g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJP\Documents\GitHub\CAN-BUS-control-R4875G1-with-ESPHome-and-MQTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE8796E-0BFE-40BB-B968-A68AFA53A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD79C97B-8315-42C3-BDFC-E5B58413E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="4740" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="178">
   <si>
     <t>Baud Rate 125kbps</t>
   </si>
@@ -517,12 +517,222 @@
   <si>
     <t>Set AC Current Limit:</t>
   </si>
+  <si>
+    <t>CAN ID</t>
+  </si>
+  <si>
+    <t>Value ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>request:</t>
+  </si>
+  <si>
+    <t>0x00080000</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>0x01700000</t>
+  </si>
+  <si>
+    <t>0x01710000</t>
+  </si>
+  <si>
+    <t>0x01720000</t>
+  </si>
+  <si>
+    <t>0x01730000</t>
+  </si>
+  <si>
+    <t>0x01740000</t>
+  </si>
+  <si>
+    <t>0x01750000</t>
+  </si>
+  <si>
+    <t>0x01760000</t>
+  </si>
+  <si>
+    <t>0x01770000</t>
+  </si>
+  <si>
+    <t>0x01780000</t>
+  </si>
+  <si>
+    <t>0x017c0000</t>
+  </si>
+  <si>
+    <t>0x017e0000</t>
+  </si>
+  <si>
+    <t>0x017f0000</t>
+  </si>
+  <si>
+    <t>0x01800000</t>
+  </si>
+  <si>
+    <t>0x01810000</t>
+  </si>
+  <si>
+    <t>0x01820000</t>
+  </si>
+  <si>
+    <t>0x01830000</t>
+  </si>
+  <si>
+    <t>0x01840000</t>
+  </si>
+  <si>
+    <t>0x01850000</t>
+  </si>
+  <si>
+    <t>0x01860000</t>
+  </si>
+  <si>
+    <t>0x01870000</t>
+  </si>
+  <si>
+    <t>response:</t>
+  </si>
+  <si>
+    <t>0x1081827e</t>
+  </si>
+  <si>
+    <t>0x01010103</t>
+  </si>
+  <si>
+    <t>undocumented</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
+  <si>
+    <t>AC input power sf /1024 (0x70)</t>
+  </si>
+  <si>
+    <t>0x0000c7eb</t>
+  </si>
+  <si>
+    <t>Grid Frequency sf /1024 (0x71)</t>
+  </si>
+  <si>
+    <t>AC input current sf /1024 (0x72)</t>
+  </si>
+  <si>
+    <t>DC output power sf /1024 (0x73)</t>
+  </si>
+  <si>
+    <t>efficiency sf /1024 (0x74)</t>
+  </si>
+  <si>
+    <t>0x00000570</t>
+  </si>
+  <si>
+    <t>output voltage 1.36V sf /1024 (0x75)</t>
+  </si>
+  <si>
+    <t>0x00000091</t>
+  </si>
+  <si>
+    <t>output live current limit sf /20 7.25A (0x76)</t>
+  </si>
+  <si>
+    <t>0x00000075</t>
+  </si>
+  <si>
+    <t>%power available sf /1024 11.42% here, usually 100%</t>
+  </si>
+  <si>
+    <t>0x00039400</t>
+  </si>
+  <si>
+    <t>Line Voltage sf /1024 (0x78)</t>
+  </si>
+  <si>
+    <t>0x0004cec0</t>
+  </si>
+  <si>
+    <t>internal DC-BUS Voltage sf /1024</t>
+  </si>
+  <si>
+    <t>0x00006800</t>
+  </si>
+  <si>
+    <t>PFC (?Power Factor Correction) module temperature 26C sf /1024</t>
+  </si>
+  <si>
+    <t>0x00004c00</t>
+  </si>
+  <si>
+    <t>input temperature 19C sf /1024 (0x80)</t>
+  </si>
+  <si>
+    <t>output temperature 26C sf /1024 (0x7F)</t>
+  </si>
+  <si>
+    <t>output current sf /1024 (0x81)</t>
+  </si>
+  <si>
+    <t>output current2 sf /1024 (0x82)</t>
+  </si>
+  <si>
+    <t>0x01830001</t>
+  </si>
+  <si>
+    <t>0x00000204</t>
+  </si>
+  <si>
+    <t>undocumented (status/error codes)</t>
+  </si>
+  <si>
+    <t>0x000005ee</t>
+  </si>
+  <si>
+    <t>0x0186000b</t>
+  </si>
+  <si>
+    <t>Fan Speed sf /256</t>
+  </si>
+  <si>
+    <t>alternative parameter request/response</t>
+  </si>
+  <si>
+    <t>How to use:</t>
+  </si>
+  <si>
+    <t>To receive each of these messages send to ID 0x108182FE the relevant value ID followed by all zeros.</t>
+  </si>
+  <si>
+    <t>for example send to ID 0x108182FE this message: 0x0171000000000000</t>
+  </si>
+  <si>
+    <t>the rectifier replies with ID 0x1081827E with a message containing the same value ID and the value of the grid frequency in the last four bytes.</t>
+  </si>
+  <si>
+    <t>for example: 0x017100000000c7eb  c7eb-HEX is 51179  divide by 1024 to get the final value of 49.98 HZ</t>
+  </si>
+  <si>
+    <t>To receive a reply from the second device send to ID 0x108282FE this message 0x0171000000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the second rectifier replies with ID 0x1082827E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">why would you use this and not the known bulk request for all values? </t>
+  </si>
+  <si>
+    <t>If you need high frequency updates for some values to get tight regulation, you can request them one by one rather than spamming the bus with all values.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +840,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -639,7 +854,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -726,11 +941,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -783,11 +1013,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,33 +1057,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,15 +1281,15 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="11" width="8.7265625" customWidth="1"/>
     <col min="12" max="12" width="1.54296875" customWidth="1"/>
@@ -1136,18 +1367,18 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:19" ht="4.5" customHeight="1">
       <c r="D7" s="4"/>
@@ -1252,12 +1483,12 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
       <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1275,12 +1506,12 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
       <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1298,12 +1529,12 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="M13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1321,12 +1552,12 @@
       <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
       <c r="M14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1344,12 +1575,12 @@
       <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
       <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1367,12 +1598,12 @@
       <c r="G16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
       <c r="M16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1390,12 +1621,12 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
       <c r="M17" s="12" t="s">
         <v>85</v>
       </c>
@@ -1416,12 +1647,12 @@
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
       <c r="M18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1439,12 +1670,12 @@
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
       <c r="M19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1462,12 +1693,12 @@
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1488,12 +1719,12 @@
       <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
       <c r="M21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1514,12 +1745,12 @@
       <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
@@ -1572,18 +1803,18 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="36" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
       <c r="M26" s="5" t="s">
         <v>42</v>
       </c>
@@ -1617,12 +1848,12 @@
       <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
       <c r="M28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1644,12 +1875,12 @@
       <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
       <c r="M29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1670,12 +1901,12 @@
       <c r="G30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
       <c r="M30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1696,12 +1927,12 @@
       <c r="G31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
       <c r="M31" s="12" t="s">
         <v>86</v>
       </c>
@@ -1725,12 +1956,12 @@
       <c r="G32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
       <c r="M32" s="12" t="s">
         <v>86</v>
       </c>
@@ -1754,12 +1985,12 @@
       <c r="G33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="38"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
       <c r="M33" s="12" t="s">
         <v>61</v>
       </c>
@@ -1911,12 +2142,12 @@
       <c r="G40" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="35"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="29"/>
       <c r="M40" s="12" t="s">
         <v>87</v>
       </c>
@@ -2029,18 +2260,18 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="36" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
       <c r="M53" s="5" t="s">
         <v>42</v>
       </c>
@@ -2058,18 +2289,18 @@
       <c r="E54" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="29" t="s">
+      <c r="G54" s="40"/>
+      <c r="H54" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32" t="s">
+      <c r="I54" s="41"/>
+      <c r="J54" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="43"/>
       <c r="M54" s="24" t="s">
         <v>96</v>
       </c>
@@ -2090,20 +2321,20 @@
       <c r="E57" s="12"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1">
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
       <c r="M58" s="5" t="s">
         <v>42</v>
       </c>
@@ -2121,10 +2352,10 @@
       <c r="E59" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="35"/>
+      <c r="G59" s="29"/>
       <c r="H59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2146,10 +2377,10 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1">
       <c r="D61" s="5"/>
@@ -2162,7 +2393,7 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D62" s="5"/>
@@ -2203,7 +2434,7 @@
       <c r="F64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="26" t="s">
         <v>104</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -2212,94 +2443,638 @@
       <c r="I64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="34" t="s">
+      <c r="J64" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="K64" s="35"/>
-      <c r="M64" s="44" t="s">
+      <c r="K64" s="29"/>
+      <c r="M64" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A95" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -3158,32 +3933,32 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
     <mergeCell ref="J64:K64"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H33:K33"/>
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="H57:K57"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="H60:K60"/>
